--- a/koruza-power-module-PCB/Project Outputs for koruza-power-module-PCB/BOM/Bill of Materials-koruza-power-module-PCB.xlsx
+++ b/koruza-power-module-PCB/Project Outputs for koruza-power-module-PCB/BOM/Bill of Materials-koruza-power-module-PCB.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="151">
   <si>
     <t>Project Full Path</t>
   </si>
@@ -110,19 +110,16 @@
     <t>None</t>
   </si>
   <si>
-    <t>05/16/2017</t>
-  </si>
-  <si>
-    <t>3:19:15 PM</t>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>1:44:17 PM</t>
   </si>
   <si>
     <t>Koruza power module</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>&lt;none&gt;</t>
+    <t>20</t>
   </si>
   <si>
     <t>Manufacturer Part Number 1</t>
@@ -146,7 +143,7 @@
     <t>GRM1885C1H680JA01D</t>
   </si>
   <si>
-    <t>SK34A-TP</t>
+    <t>SD2114S040S5R0</t>
   </si>
   <si>
     <t>1N4148W-7-F.</t>
@@ -155,16 +152,28 @@
     <t>MBRM140T1G</t>
   </si>
   <si>
+    <t>BZM55C6V2-TR</t>
+  </si>
+  <si>
+    <t>BZM55C10-TR</t>
+  </si>
+  <si>
+    <t>MFU0805FF03000P100</t>
+  </si>
+  <si>
+    <t>MCF0805B1R00FSTR</t>
+  </si>
+  <si>
     <t>DR125-330-R</t>
   </si>
   <si>
     <t>SDR0703-100KL</t>
   </si>
   <si>
-    <t>MC0063W0603112K</t>
-  </si>
-  <si>
-    <t>MCMR06X471 JTL</t>
+    <t>MCSR06X6191FTL</t>
+  </si>
+  <si>
+    <t>MCMR06X2201FTL</t>
   </si>
   <si>
     <t>MC0063W06031105K</t>
@@ -197,7 +206,7 @@
     <t>MURATA</t>
   </si>
   <si>
-    <t>MICRO COMMERCIAL COMPONENTS</t>
+    <t>AVX</t>
   </si>
   <si>
     <t>DIODES INC.</t>
@@ -206,15 +215,18 @@
     <t>ON SEMICONDUCTOR</t>
   </si>
   <si>
+    <t>VISHAY</t>
+  </si>
+  <si>
+    <t>MULTICOMP</t>
+  </si>
+  <si>
     <t>COILTRONICS</t>
   </si>
   <si>
     <t>BOURNS</t>
   </si>
   <si>
-    <t>MULTICOMP</t>
-  </si>
-  <si>
     <t>LINEAR TECHNOLOGY</t>
   </si>
   <si>
@@ -239,7 +251,7 @@
     <t>MURATA - GRM1885C1H680JA01D - CAP, MLCC, C0G/NP0, 68PF, 50V, 0603</t>
   </si>
   <si>
-    <t>MICRO COMMERCIAL COMPONENTS - SK34A-TP - SCHOTTKY RECTIFIERS, 3A, 40V, DO-214AC</t>
+    <t>AVX - SD2114S040S5R0 - DIODE, SCHOTTKY, 5A, 40V, D0-214AA</t>
   </si>
   <si>
     <t>DIODES INC. - 1N4148W-7-F. - DIODE, SWITCH, 300MA, 100V,SOD123</t>
@@ -248,16 +260,28 @@
     <t>ON SEMICONDUCTOR - MBRM140T1G - DIODE, SCHOTTKY, 1A, POWERMITE</t>
   </si>
   <si>
+    <t>VISHAY - BZM55C6V2-TR - DIODE, ZENER, 6.2V, 0.5W</t>
+  </si>
+  <si>
+    <t>VISHAY - BZM55C10-TR - DIODE, ZENER, VZ 10V</t>
+  </si>
+  <si>
+    <t>VISHAY - MFU0805FF03000P100 - FUSE, 0805 SMD, 3A</t>
+  </si>
+  <si>
+    <t>MULTICOMP - MCF0805B1R00FSTR - FUSE, SMD, 0805, 1A</t>
+  </si>
+  <si>
     <t>COILTRONICS - DR125-330-R - INDUCTOR, SMD, 33UH, 3.28A</t>
   </si>
   <si>
     <t>BOURNS - SDR0703-100KL - INDUCTOR, POWER, 10UH, 10%, 1A</t>
   </si>
   <si>
-    <t>MULTICOMP - MC0063W0603112K - RES, THICK FILM, 12K, 1%, 0.063W, 0603</t>
-  </si>
-  <si>
-    <t>MULTICOMP - MCMR06X471 JTL - RES, CERAMIC, 470R, 5%, 0.1W, 0603</t>
+    <t>MULTICOMP - MCSR06X6191FTL - RES, CERAMIC, 6K19, 1%, 0.1W, 0603</t>
+  </si>
+  <si>
+    <t>MULTICOMP - MCMR06X2201FTL - RES, CERAMIC, 2K2, 1%, 0.1W, 0603</t>
   </si>
   <si>
     <t>MULTICOMP - MC0063W06031105K - RES, THICK FILM, 105K, 1%, 0.063W, 0603</t>
@@ -293,7 +317,7 @@
     <t>CAP1206</t>
   </si>
   <si>
-    <t>SMC/DO-214AC</t>
+    <t/>
   </si>
   <si>
     <t>SOD123</t>
@@ -302,6 +326,9 @@
     <t>POWERMITE</t>
   </si>
   <si>
+    <t>FUSE0805</t>
+  </si>
+  <si>
     <t>IND DR125 Series</t>
   </si>
   <si>
@@ -350,7 +377,7 @@
     <t>8819858</t>
   </si>
   <si>
-    <t>1924423</t>
+    <t>2400187</t>
   </si>
   <si>
     <t>1776392</t>
@@ -359,16 +386,28 @@
     <t>1459067</t>
   </si>
   <si>
+    <t>1469416</t>
+  </si>
+  <si>
+    <t>1651600</t>
+  </si>
+  <si>
+    <t>2057187</t>
+  </si>
+  <si>
+    <t>1337418</t>
+  </si>
+  <si>
     <t>2075603</t>
   </si>
   <si>
     <t>1929709</t>
   </si>
   <si>
-    <t>9330518</t>
-  </si>
-  <si>
-    <t>2073513</t>
+    <t>2074287</t>
+  </si>
+  <si>
+    <t>2073429</t>
   </si>
   <si>
     <t>1170988</t>
@@ -416,10 +455,10 @@
     <t>&lt;Parameter Title not found&gt;</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>05/16/2017 3:19:15 PM</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>05/30/2017 1:44:17 PM</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -1303,6 +1342,70 @@
     <xf numFmtId="2" fontId="8" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1316,79 +1419,71 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2072,10 +2167,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2123,7 +2218,7 @@
       </c>
       <c r="D2" s="53"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="82" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="12"/>
@@ -2142,7 +2237,7 @@
       <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="78" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="13"/>
@@ -2165,7 +2260,7 @@
       <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="79" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="16"/>
@@ -2186,7 +2281,7 @@
       <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="18"/>
@@ -2226,10 +2321,10 @@
       <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="81" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="36"/>
@@ -2253,11 +2348,11 @@
       </c>
       <c r="D8" s="21">
         <f ca="1">TODAY()</f>
-        <v>42871</v>
+        <v>42885</v>
       </c>
       <c r="E8" s="22">
         <f ca="1">NOW()</f>
-        <v>42871.638431597225</v>
+        <v>42885.574186921294</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="20"/>
@@ -2275,1252 +2370,1468 @@
       <c r="B9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" s="97" t="s">
-        <v>126</v>
-      </c>
-      <c r="M9" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="N9" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="O9" s="98" t="s">
-        <v>129</v>
+      <c r="C9" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="N9" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="O9" s="93" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="28">
-        <f>ROW(B10) - ROW($B$9)</f>
+        <f t="shared" ref="B10:B33" si="0">ROW(B10) - ROW($B$9)</f>
         <v>1</v>
       </c>
-      <c r="C10" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="93" t="s">
-        <v>89</v>
+      <c r="C10" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>97</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29">
         <v>2</v>
       </c>
-      <c r="I10" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="93" t="s">
-        <v>105</v>
+      <c r="I10" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="88" t="s">
+        <v>114</v>
       </c>
       <c r="K10" s="37">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L10" s="37">
-        <v>8783</v>
+        <v>10664</v>
       </c>
       <c r="M10" s="76">
-        <v>0.36399999999999999</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="N10" s="76">
-        <v>3.64</v>
-      </c>
-      <c r="O10" s="99" t="s">
-        <v>130</v>
+        <v>13.35</v>
+      </c>
+      <c r="O10" s="94" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
       <c r="B11" s="30">
-        <f>ROW(B11) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>90</v>
+      <c r="C11" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="87" t="s">
+        <v>98</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="31">
         <v>4</v>
       </c>
-      <c r="I11" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="92" t="s">
-        <v>106</v>
+      <c r="I11" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="87" t="s">
+        <v>115</v>
       </c>
       <c r="K11" s="38">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L11" s="38">
-        <v>17667</v>
+        <v>15297</v>
       </c>
       <c r="M11" s="77">
-        <v>1.5800000000000002E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="N11" s="77">
-        <v>0.316</v>
-      </c>
-      <c r="O11" s="100" t="s">
-        <v>130</v>
+        <v>1.32</v>
+      </c>
+      <c r="O11" s="95" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52"/>
       <c r="B12" s="28">
-        <f>ROW(B12) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="93" t="s">
-        <v>90</v>
+      <c r="C12" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>98</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="29">
         <v>1</v>
       </c>
-      <c r="I12" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="93" t="s">
-        <v>107</v>
+      <c r="I12" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="88" t="s">
+        <v>116</v>
       </c>
       <c r="K12" s="37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L12" s="37">
-        <v>4446</v>
+        <v>3356</v>
       </c>
       <c r="M12" s="76">
-        <v>2.3300000000000001E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="N12" s="76">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="O12" s="99" t="s">
-        <v>130</v>
+        <v>0.628</v>
+      </c>
+      <c r="O12" s="94" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
       <c r="B13" s="30">
-        <f>ROW(B13) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="92" t="s">
-        <v>90</v>
+      <c r="C13" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="87" t="s">
+        <v>98</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="31">
         <v>1</v>
       </c>
-      <c r="I13" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" s="92" t="s">
-        <v>108</v>
+      <c r="I13" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="87" t="s">
+        <v>117</v>
       </c>
       <c r="K13" s="38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L13" s="38">
-        <v>62202</v>
+        <v>57852</v>
       </c>
       <c r="M13" s="77">
-        <v>9.2999999999999999E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="N13" s="77">
-        <v>0.93</v>
-      </c>
-      <c r="O13" s="100" t="s">
-        <v>130</v>
+        <v>1.944</v>
+      </c>
+      <c r="O13" s="95" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
       <c r="B14" s="28">
-        <f>ROW(B14) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="93" t="s">
-        <v>91</v>
+      <c r="C14" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>99</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29">
         <v>1</v>
       </c>
-      <c r="I14" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="93" t="s">
-        <v>109</v>
+      <c r="I14" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="88" t="s">
+        <v>118</v>
       </c>
       <c r="K14" s="37">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L14" s="37">
-        <v>182</v>
+        <v>124791</v>
       </c>
       <c r="M14" s="76">
-        <v>0.36899999999999999</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="N14" s="76">
-        <v>1.845</v>
-      </c>
-      <c r="O14" s="99" t="s">
-        <v>130</v>
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="O14" s="94" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
       <c r="B15" s="30">
-        <f>ROW(B15) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="92" t="s">
-        <v>90</v>
+      <c r="C15" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="87" t="s">
+        <v>98</v>
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="31">
         <v>1</v>
       </c>
-      <c r="I15" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="92" t="s">
-        <v>110</v>
+      <c r="I15" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="87" t="s">
+        <v>119</v>
       </c>
       <c r="K15" s="38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L15" s="38">
-        <v>9555</v>
+        <v>9185</v>
       </c>
       <c r="M15" s="77">
-        <v>2.24E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="N15" s="77">
-        <v>0.224</v>
-      </c>
-      <c r="O15" s="100" t="s">
-        <v>130</v>
+        <v>0.628</v>
+      </c>
+      <c r="O15" s="95" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
       <c r="B16" s="28">
-        <f>ROW(B16) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="93" t="s">
-        <v>92</v>
+      <c r="C16" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>100</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="29">
         <v>1</v>
       </c>
-      <c r="I16" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="93" t="s">
-        <v>111</v>
+      <c r="I16" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="88" t="s">
+        <v>120</v>
       </c>
       <c r="K16" s="37">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L16" s="37">
-        <v>3770</v>
+        <v>9585</v>
       </c>
       <c r="M16" s="76">
-        <v>0.73599999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="N16" s="76">
-        <v>3.68</v>
-      </c>
-      <c r="O16" s="99" t="s">
-        <v>130</v>
+        <v>12</v>
+      </c>
+      <c r="O16" s="94" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
       <c r="B17" s="30">
-        <f>ROW(B17) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="92" t="s">
-        <v>93</v>
+      <c r="C17" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="87" t="s">
+        <v>101</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="31">
         <v>1</v>
       </c>
-      <c r="I17" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="92" t="s">
+      <c r="I17" s="90" t="s">
         <v>112</v>
       </c>
+      <c r="J17" s="87" t="s">
+        <v>121</v>
+      </c>
       <c r="K17" s="38">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L17" s="38">
-        <v>124279</v>
+        <v>101071</v>
       </c>
       <c r="M17" s="77">
-        <v>0.13600000000000001</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="N17" s="77">
-        <v>0.68</v>
-      </c>
-      <c r="O17" s="100" t="s">
-        <v>130</v>
+        <v>3.58</v>
+      </c>
+      <c r="O17" s="95" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="B18" s="28">
-        <f>ROW(B18) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="93" t="s">
-        <v>94</v>
+      <c r="C18" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>102</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="29">
         <v>1</v>
       </c>
-      <c r="I18" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="93" t="s">
-        <v>113</v>
+      <c r="I18" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" s="88" t="s">
+        <v>122</v>
       </c>
       <c r="K18" s="37">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L18" s="37">
-        <v>6668</v>
+        <v>4629</v>
       </c>
       <c r="M18" s="76">
         <v>0.25900000000000001</v>
       </c>
       <c r="N18" s="76">
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="O18" s="99" t="s">
-        <v>130</v>
+        <v>5.18</v>
+      </c>
+      <c r="O18" s="94" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
       <c r="B19" s="30">
-        <f>ROW(B19) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="92" t="s">
-        <v>95</v>
+      <c r="C19" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="87" t="s">
+        <v>100</v>
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="31">
         <v>1</v>
       </c>
-      <c r="I19" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" s="92" t="s">
-        <v>114</v>
+      <c r="I19" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="87" t="s">
+        <v>123</v>
       </c>
       <c r="K19" s="38">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L19" s="38">
-        <v>5000</v>
+        <v>14419</v>
       </c>
       <c r="M19" s="77">
-        <v>1.53</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="N19" s="77">
-        <v>7.65</v>
-      </c>
-      <c r="O19" s="100" t="s">
-        <v>130</v>
+        <v>2.86</v>
+      </c>
+      <c r="O19" s="95" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
       <c r="B20" s="28">
-        <f>ROW(B20) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="93" t="s">
-        <v>96</v>
+      <c r="C20" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="88" t="s">
+        <v>100</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="29">
         <v>1</v>
       </c>
-      <c r="I20" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="93" t="s">
-        <v>115</v>
+      <c r="I20" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="88" t="s">
+        <v>124</v>
       </c>
       <c r="K20" s="37">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L20" s="37">
-        <v>176</v>
+        <v>8754</v>
       </c>
       <c r="M20" s="76">
-        <v>0.59399999999999997</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="N20" s="76">
-        <v>2.97</v>
-      </c>
-      <c r="O20" s="99" t="s">
-        <v>130</v>
+        <v>2.88</v>
+      </c>
+      <c r="O20" s="94" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
       <c r="B21" s="30">
-        <f>ROW(B21) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="92" t="s">
-        <v>97</v>
+      <c r="C21" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="87" t="s">
+        <v>103</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="31">
         <v>1</v>
       </c>
-      <c r="I21" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" s="92" t="s">
-        <v>116</v>
+      <c r="I21" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" s="87" t="s">
+        <v>125</v>
       </c>
       <c r="K21" s="38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L21" s="38">
-        <v>2305</v>
+        <v>616</v>
       </c>
       <c r="M21" s="77">
-        <v>1.1000000000000001E-3</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="N21" s="77">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="O21" s="100" t="s">
-        <v>130</v>
+        <v>10.96</v>
+      </c>
+      <c r="O21" s="95" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52"/>
       <c r="B22" s="28">
-        <f>ROW(B22) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="93" t="s">
-        <v>97</v>
+      <c r="C22" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="88" t="s">
+        <v>103</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="29">
         <v>1</v>
       </c>
-      <c r="I22" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" s="93" t="s">
-        <v>117</v>
+      <c r="I22" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" s="88" t="s">
+        <v>126</v>
       </c>
       <c r="K22" s="37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L22" s="37">
-        <v>3496</v>
+        <v>7549</v>
       </c>
       <c r="M22" s="76">
-        <v>8.8999999999999999E-3</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="N22" s="76">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="O22" s="99" t="s">
-        <v>130</v>
+        <v>11.74</v>
+      </c>
+      <c r="O22" s="94" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
       <c r="B23" s="30">
-        <f>ROW(B23) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="92" t="s">
-        <v>97</v>
+      <c r="C23" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="87" t="s">
+        <v>104</v>
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="31">
         <v>1</v>
       </c>
-      <c r="I23" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" s="92" t="s">
-        <v>118</v>
+      <c r="I23" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" s="87" t="s">
+        <v>127</v>
       </c>
       <c r="K23" s="38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L23" s="38">
-        <v>7970</v>
+        <v>4990</v>
       </c>
       <c r="M23" s="77">
-        <v>1.1000000000000001E-3</v>
+        <v>1.56</v>
       </c>
       <c r="N23" s="77">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="O23" s="100" t="s">
-        <v>130</v>
+        <v>31.2</v>
+      </c>
+      <c r="O23" s="95" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
       <c r="B24" s="28">
-        <f>ROW(B24) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="93" t="s">
-        <v>97</v>
+      <c r="C24" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="88" t="s">
+        <v>105</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29">
         <v>1</v>
       </c>
-      <c r="I24" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="93" t="s">
-        <v>119</v>
+      <c r="I24" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="88" t="s">
+        <v>128</v>
       </c>
       <c r="K24" s="37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L24" s="37">
-        <v>14782</v>
+        <v>171</v>
       </c>
       <c r="M24" s="76">
-        <v>6.3E-3</v>
+        <v>0.433</v>
       </c>
       <c r="N24" s="76">
-        <v>6.3E-2</v>
-      </c>
-      <c r="O24" s="99" t="s">
-        <v>130</v>
+        <v>8.66</v>
+      </c>
+      <c r="O24" s="94" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
       <c r="B25" s="30">
-        <f>ROW(B25) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="92" t="s">
-        <v>97</v>
+      <c r="C25" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="87" t="s">
+        <v>106</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="31">
         <v>1</v>
       </c>
-      <c r="I25" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="J25" s="92" t="s">
-        <v>120</v>
+      <c r="I25" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="87" t="s">
+        <v>129</v>
       </c>
       <c r="K25" s="38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L25" s="38">
-        <v>4256</v>
+        <v>3861</v>
       </c>
       <c r="M25" s="77">
-        <v>1.15E-2</v>
+        <v>1.29E-2</v>
       </c>
       <c r="N25" s="77">
-        <v>0.115</v>
-      </c>
-      <c r="O25" s="100" t="s">
-        <v>130</v>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="O25" s="95" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
       <c r="B26" s="28">
-        <f>ROW(B26) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="93" t="s">
-        <v>97</v>
+      <c r="C26" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="88" t="s">
+        <v>106</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="29">
         <v>1</v>
       </c>
-      <c r="I26" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="J26" s="93" t="s">
-        <v>121</v>
+      <c r="I26" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="88" t="s">
+        <v>130</v>
       </c>
       <c r="K26" s="37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L26" s="37">
-        <v>1782</v>
+        <v>17638</v>
       </c>
       <c r="M26" s="76">
-        <v>1.4500000000000001E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="N26" s="76">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="O26" s="99" t="s">
-        <v>130</v>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="O26" s="94" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
       <c r="B27" s="30">
-        <f>ROW(B27) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="92" t="s">
-        <v>97</v>
+      <c r="C27" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="87" t="s">
+        <v>106</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="31">
         <v>1</v>
       </c>
-      <c r="I27" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="J27" s="92" t="s">
-        <v>122</v>
+      <c r="I27" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="87" t="s">
+        <v>131</v>
       </c>
       <c r="K27" s="38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L27" s="38">
-        <v>10741</v>
+        <v>7960</v>
       </c>
       <c r="M27" s="77">
-        <v>6.3E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="N27" s="77">
-        <v>6.3E-2</v>
-      </c>
-      <c r="O27" s="100" t="s">
-        <v>130</v>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="O27" s="95" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
       <c r="B28" s="28">
-        <f>ROW(B28) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="93" t="s">
-        <v>98</v>
+      <c r="C28" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="88" t="s">
+        <v>106</v>
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="29">
         <v>1</v>
       </c>
-      <c r="I28" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="J28" s="93" t="s">
-        <v>123</v>
+      <c r="I28" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="88" t="s">
+        <v>132</v>
       </c>
       <c r="K28" s="37">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L28" s="37">
-        <v>334</v>
+        <v>14432</v>
       </c>
       <c r="M28" s="76">
-        <v>1.98</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="N28" s="76">
-        <v>9.9</v>
-      </c>
-      <c r="O28" s="99" t="s">
-        <v>130</v>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O28" s="94" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
       <c r="B29" s="30">
-        <f>ROW(B29) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="92" t="s">
-        <v>99</v>
+      <c r="C29" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="87" t="s">
+        <v>106</v>
       </c>
       <c r="G29" s="31"/>
       <c r="H29" s="31">
         <v>1</v>
       </c>
-      <c r="I29" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29" s="92" t="s">
-        <v>124</v>
+      <c r="I29" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" s="87" t="s">
+        <v>133</v>
       </c>
       <c r="K29" s="38">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L29" s="38">
+        <v>4146</v>
+      </c>
+      <c r="M29" s="77">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="N29" s="77">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="O29" s="95" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
+      <c r="B30" s="28">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29">
+        <v>1</v>
+      </c>
+      <c r="I30" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="K30" s="37">
+        <v>20</v>
+      </c>
+      <c r="L30" s="37">
+        <v>1772</v>
+      </c>
+      <c r="M30" s="76">
+        <v>1.29E-2</v>
+      </c>
+      <c r="N30" s="76">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="O30" s="94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="52"/>
+      <c r="B31" s="30">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" s="38">
+        <v>20</v>
+      </c>
+      <c r="L31" s="38">
+        <v>10501</v>
+      </c>
+      <c r="M31" s="77">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="N31" s="77">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O31" s="95" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52"/>
+      <c r="B32" s="28">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="M29" s="77">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="N29" s="77">
-        <v>23.25</v>
-      </c>
-      <c r="O29" s="100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="43">
-        <f>SUM(H10:H29)</f>
+      <c r="F32" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29">
+        <v>1</v>
+      </c>
+      <c r="I32" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="37">
+        <v>20</v>
+      </c>
+      <c r="L32" s="37">
+        <v>1327</v>
+      </c>
+      <c r="M32" s="76">
+        <v>1.49</v>
+      </c>
+      <c r="N32" s="76">
+        <v>29.8</v>
+      </c>
+      <c r="O32" s="94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
+      <c r="B33" s="30">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I30" s="70"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="43">
-        <f>SUM(K10:K29)</f>
-        <v>170</v>
-      </c>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42">
-        <f>SUM(N10:N29)</f>
-        <v>57.109999999999992</v>
-      </c>
-      <c r="O30" s="63"/>
-    </row>
-    <row r="31" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="52"/>
-      <c r="B31" s="78" t="s">
+      <c r="C33" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31">
+        <v>1</v>
+      </c>
+      <c r="I33" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="K33" s="38">
+        <v>25</v>
+      </c>
+      <c r="L33" s="38">
+        <v>637</v>
+      </c>
+      <c r="M33" s="77">
+        <v>2.98</v>
+      </c>
+      <c r="N33" s="77">
+        <v>74.5</v>
+      </c>
+      <c r="O33" s="95" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="52"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="43">
+        <f>SUM(H10:H33)</f>
+        <v>28</v>
+      </c>
+      <c r="I34" s="70"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="43">
+        <f>SUM(K10:K33)</f>
+        <v>595</v>
+      </c>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42">
+        <f>SUM(N10:N33)</f>
+        <v>220.98</v>
+      </c>
+      <c r="O34" s="63"/>
+    </row>
+    <row r="35" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="52"/>
+      <c r="B35" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="46" t="s">
+      <c r="C35" s="99"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="62"/>
-    </row>
-    <row r="32" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="87" t="s">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="62"/>
+    </row>
+    <row r="36" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="52"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="75" t="s">
+      <c r="I36" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="J32" s="41" t="s">
+      <c r="J36" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="79">
-        <f>N30</f>
-        <v>57.109999999999992</v>
-      </c>
-      <c r="M32" s="80"/>
-      <c r="N32" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="O32" s="62"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="45" t="s">
+      <c r="K36" s="36"/>
+      <c r="L36" s="100">
+        <f>N34</f>
+        <v>220.98</v>
+      </c>
+      <c r="M36" s="101"/>
+      <c r="N36" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="O36" s="62"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="52"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="81">
-        <f>L32/H32</f>
-        <v>11.421999999999999</v>
-      </c>
-      <c r="M33" s="81"/>
-      <c r="N33" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="O33" s="62"/>
-    </row>
-    <row r="34" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="64"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="102">
+        <f>L36/H36</f>
+        <v>11.048999999999999</v>
+      </c>
+      <c r="M37" s="102"/>
+      <c r="N37" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="O37" s="62"/>
+    </row>
+    <row r="38" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="55"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="64"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="L10:L11">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N11">
-    <cfRule type="containsBlanks" dxfId="36" priority="38">
+    <cfRule type="containsBlanks" dxfId="44" priority="46">
       <formula>LEN(TRIM(N10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="containsBlanks" dxfId="42" priority="43">
+      <formula>LEN(TRIM(N12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="containsBlanks" dxfId="40" priority="41">
+      <formula>LEN(TRIM(N13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="containsBlanks" dxfId="38" priority="39">
+      <formula>LEN(TRIM(N14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="containsBlanks" dxfId="36" priority="37">
+      <formula>LEN(TRIM(N15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
     <cfRule type="cellIs" dxfId="35" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12">
+  <conditionalFormatting sqref="N16">
     <cfRule type="containsBlanks" dxfId="34" priority="35">
-      <formula>LEN(TRIM(N12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+      <formula>LEN(TRIM(N16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
     <cfRule type="cellIs" dxfId="33" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13">
+  <conditionalFormatting sqref="N17">
     <cfRule type="containsBlanks" dxfId="32" priority="33">
-      <formula>LEN(TRIM(N13))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+      <formula>LEN(TRIM(N17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
     <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
+  <conditionalFormatting sqref="N18">
     <cfRule type="containsBlanks" dxfId="30" priority="31">
-      <formula>LEN(TRIM(N14))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
+      <formula>LEN(TRIM(N18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
     <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
+  <conditionalFormatting sqref="N19">
     <cfRule type="containsBlanks" dxfId="28" priority="29">
-      <formula>LEN(TRIM(N15))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+      <formula>LEN(TRIM(N19))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
     <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
+  <conditionalFormatting sqref="N20">
     <cfRule type="containsBlanks" dxfId="26" priority="27">
-      <formula>LEN(TRIM(N16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+      <formula>LEN(TRIM(N20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
+  <conditionalFormatting sqref="N21">
     <cfRule type="containsBlanks" dxfId="24" priority="25">
-      <formula>LEN(TRIM(N17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
+      <formula>LEN(TRIM(N21))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18">
+  <conditionalFormatting sqref="N22">
     <cfRule type="containsBlanks" dxfId="22" priority="23">
-      <formula>LEN(TRIM(N18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
+      <formula>LEN(TRIM(N22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
     <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
+  <conditionalFormatting sqref="N23">
     <cfRule type="containsBlanks" dxfId="20" priority="21">
-      <formula>LEN(TRIM(N19))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
+      <formula>LEN(TRIM(N23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
+  <conditionalFormatting sqref="N24">
     <cfRule type="containsBlanks" dxfId="18" priority="19">
-      <formula>LEN(TRIM(N20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
+      <formula>LEN(TRIM(N24))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N21">
+  <conditionalFormatting sqref="N25">
     <cfRule type="containsBlanks" dxfId="16" priority="17">
-      <formula>LEN(TRIM(N21))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+      <formula>LEN(TRIM(N25))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22">
+  <conditionalFormatting sqref="N26">
     <cfRule type="containsBlanks" dxfId="14" priority="15">
-      <formula>LEN(TRIM(N22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
+      <formula>LEN(TRIM(N26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
+  <conditionalFormatting sqref="N27">
     <cfRule type="containsBlanks" dxfId="12" priority="13">
-      <formula>LEN(TRIM(N23))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
+      <formula>LEN(TRIM(N27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24">
+  <conditionalFormatting sqref="N28">
     <cfRule type="containsBlanks" dxfId="10" priority="11">
-      <formula>LEN(TRIM(N24))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
+      <formula>LEN(TRIM(N28))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N25">
+  <conditionalFormatting sqref="N29">
     <cfRule type="containsBlanks" dxfId="8" priority="9">
-      <formula>LEN(TRIM(N25))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
+      <formula>LEN(TRIM(N29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
+  <conditionalFormatting sqref="N30">
     <cfRule type="containsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(N26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
+      <formula>LEN(TRIM(N30))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27">
+  <conditionalFormatting sqref="N31">
     <cfRule type="containsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(N27))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L28">
+      <formula>LEN(TRIM(N31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N28">
+  <conditionalFormatting sqref="N32">
     <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(N28))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+      <formula>LEN(TRIM(N32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N29">
+  <conditionalFormatting sqref="N33">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(N29))=0</formula>
+      <formula>LEN(TRIM(N33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -3555,15 +3866,15 @@
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101" t="s">
-        <v>131</v>
+      <c r="B1" s="96" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="97" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3571,7 +3882,7 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="98" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3579,7 +3890,7 @@
       <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="97" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3587,31 +3898,31 @@
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="103" t="s">
-        <v>131</v>
+      <c r="B5" s="98" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="102" t="s">
-        <v>132</v>
+      <c r="B6" s="97" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="103" t="s">
-        <v>133</v>
+      <c r="B7" s="98" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="97" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3619,7 +3930,7 @@
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="98" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3627,40 +3938,40 @@
       <c r="A10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="102" t="s">
-        <v>134</v>
+      <c r="B10" s="97" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="103" t="s">
-        <v>135</v>
+      <c r="B11" s="98" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="102" t="s">
-        <v>136</v>
+      <c r="B12" s="97" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="103" t="s">
-        <v>137</v>
+      <c r="B13" s="98" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="102" t="s">
-        <v>135</v>
+      <c r="B14" s="97" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
